--- a/Team-Data/2008-09/3-20-2008-09.xlsx
+++ b/Team-Data/2008-09/3-20-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,22 +811,22 @@
         <v>2.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
@@ -774,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -795,7 +862,7 @@
         <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
         <v>6</v>
@@ -804,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>8</v>
@@ -813,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>20</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -866,67 +933,67 @@
         <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.485</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
         <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.395</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="P3" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="W3" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X3" t="n">
         <v>4.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,13 +1005,13 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
@@ -956,22 +1023,22 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>18</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
         <v>8</v>
@@ -980,22 +1047,22 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -1030,31 +1097,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
         <v>38</v>
       </c>
       <c r="G4" t="n">
-        <v>0.449</v>
+        <v>0.441</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J4" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L4" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>16.2</v>
@@ -1063,22 +1130,22 @@
         <v>0.374</v>
       </c>
       <c r="O4" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P4" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R4" t="n">
         <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T4" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="U4" t="n">
         <v>21.2</v>
@@ -1093,43 +1160,43 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
         <v>21.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>5</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ4" t="n">
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1165,7 +1232,7 @@
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1177,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="n">
         <v>37</v>
       </c>
       <c r="G5" t="n">
-        <v>0.456</v>
+        <v>0.464</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.452</v>
@@ -1245,19 +1312,19 @@
         <v>0.381</v>
       </c>
       <c r="O5" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
         <v>42.6</v>
@@ -1266,7 +1333,7 @@
         <v>20.8</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1281,16 +1348,16 @@
         <v>21.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.3</v>
+        <v>-1</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1311,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>23</v>
@@ -1320,13 +1387,13 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1335,7 +1402,7 @@
         <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -1344,7 +1411,7 @@
         <v>15</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
@@ -1359,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -1394,46 +1461,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" t="n">
         <v>55</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.821</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
         <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.388</v>
+        <v>0.386</v>
       </c>
       <c r="O6" t="n">
         <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R6" t="n">
         <v>10.8</v>
@@ -1442,37 +1509,37 @@
         <v>30.9</v>
       </c>
       <c r="T6" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
         <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1502,13 +1569,13 @@
         <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>24</v>
@@ -1517,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
         <v>14</v>
@@ -1529,19 +1596,19 @@
         <v>7</v>
       </c>
       <c r="AW6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
         <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ6" t="n">
         <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="n">
         <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.594</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1600,10 +1667,10 @@
         <v>0.46</v>
       </c>
       <c r="L7" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
         <v>0.345</v>
@@ -1615,22 +1682,22 @@
         <v>22.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>11.2</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T7" t="n">
         <v>42.9</v>
       </c>
       <c r="U7" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V7" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W7" t="n">
         <v>7.3</v>
@@ -1648,13 +1715,13 @@
         <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AC7" t="n">
         <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1675,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
         <v>13</v>
@@ -1684,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
@@ -1696,13 +1763,13 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU7" t="n">
         <v>10</v>
@@ -1711,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX7" t="n">
         <v>9</v>
@@ -1720,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -1758,64 +1825,64 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="n">
         <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.643</v>
+        <v>0.638</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J8" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K8" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L8" t="n">
         <v>6.4</v>
       </c>
       <c r="M8" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O8" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="Q8" t="n">
         <v>0.758</v>
       </c>
       <c r="R8" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S8" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T8" t="n">
         <v>41.7</v>
       </c>
       <c r="U8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V8" t="n">
         <v>15.6</v>
       </c>
       <c r="W8" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
         <v>5.9</v>
@@ -1827,19 +1894,19 @@
         <v>22.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="AC8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD8" t="n">
         <v>3</v>
       </c>
-      <c r="AD8" t="n">
-        <v>2</v>
-      </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
@@ -1869,7 +1936,7 @@
         <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
@@ -1881,34 +1948,34 @@
         <v>13</v>
       </c>
       <c r="AS8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
         <v>26</v>
       </c>
       <c r="AW8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>25</v>
       </c>
-      <c r="AZ8" t="n">
-        <v>26</v>
-      </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
         <v>9</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
         <v>34</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.493</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J9" t="n">
         <v>80.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
@@ -1970,31 +2037,31 @@
         <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O9" t="n">
         <v>16.9</v>
       </c>
       <c r="P9" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q9" t="n">
         <v>0.751</v>
       </c>
       <c r="R9" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S9" t="n">
         <v>29.8</v>
       </c>
       <c r="T9" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U9" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V9" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="W9" t="n">
         <v>6.3</v>
@@ -2006,22 +2073,22 @@
         <v>4.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>94.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF9" t="n">
         <v>16</v>
@@ -2033,10 +2100,10 @@
         <v>3</v>
       </c>
       <c r="AI9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK9" t="n">
         <v>18</v>
@@ -2048,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2066,7 +2133,7 @@
         <v>18</v>
       </c>
       <c r="AT9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2078,7 +2145,7 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY9" t="n">
         <v>6</v>
@@ -2087,7 +2154,7 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
         <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>0.362</v>
+        <v>0.353</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J10" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L10" t="n">
         <v>6.6</v>
       </c>
       <c r="M10" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O10" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="P10" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q10" t="n">
         <v>0.786</v>
       </c>
       <c r="R10" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S10" t="n">
         <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U10" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
@@ -2188,19 +2255,19 @@
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.4</v>
+        <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
         <v>16</v>
@@ -2230,10 +2297,10 @@
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP10" t="n">
         <v>2</v>
@@ -2242,13 +2309,13 @@
         <v>10</v>
       </c>
       <c r="AR10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT10" t="n">
         <v>10</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>11</v>
       </c>
       <c r="AU10" t="n">
         <v>14</v>
@@ -2257,7 +2324,7 @@
         <v>23</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
         <v>1</v>
@@ -2266,10 +2333,10 @@
         <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.648</v>
+        <v>0.643</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J11" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L11" t="n">
         <v>7.6</v>
@@ -2334,16 +2401,16 @@
         <v>20.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.374</v>
+        <v>0.371</v>
       </c>
       <c r="O11" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P11" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.805</v>
       </c>
       <c r="R11" t="n">
         <v>10.4</v>
@@ -2373,13 +2440,13 @@
         <v>18.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -2403,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2412,22 +2479,22 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
@@ -2445,7 +2512,7 @@
         <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2454,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="BB11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" t="n">
         <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>0.406</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,7 +2571,7 @@
         <v>38.7</v>
       </c>
       <c r="J12" t="n">
-        <v>86.09999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.449</v>
@@ -2513,19 +2580,19 @@
         <v>7.9</v>
       </c>
       <c r="M12" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N12" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O12" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P12" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.805</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R12" t="n">
         <v>11.3</v>
@@ -2537,13 +2604,13 @@
         <v>43.5</v>
       </c>
       <c r="U12" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V12" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X12" t="n">
         <v>5.2</v>
@@ -2558,13 +2625,13 @@
         <v>21.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.8</v>
+        <v>104</v>
       </c>
       <c r="AC12" t="n">
         <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2600,10 +2667,10 @@
         <v>20</v>
       </c>
       <c r="AP12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR12" t="n">
         <v>12</v>
@@ -2615,22 +2682,22 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA12" t="n">
         <v>13</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" t="n">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2686,46 +2753,46 @@
         <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K13" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L13" t="n">
         <v>6.6</v>
       </c>
       <c r="M13" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O13" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P13" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R13" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S13" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T13" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V13" t="n">
         <v>14.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X13" t="n">
         <v>5.9</v>
@@ -2734,19 +2801,19 @@
         <v>5.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB13" t="n">
         <v>95.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2782,7 +2849,7 @@
         <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ13" t="n">
         <v>27</v>
@@ -2791,7 +2858,7 @@
         <v>15</v>
       </c>
       <c r="AS13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>22</v>
@@ -2803,16 +2870,16 @@
         <v>19</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AX13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14" t="n">
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.791</v>
+        <v>0.794</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="K14" t="n">
         <v>0.478</v>
@@ -2877,58 +2944,58 @@
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.363</v>
+        <v>0.366</v>
       </c>
       <c r="O14" t="n">
         <v>19.9</v>
       </c>
       <c r="P14" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q14" t="n">
         <v>0.77</v>
       </c>
       <c r="R14" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
         <v>13.7</v>
       </c>
       <c r="W14" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
         <v>5.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
         <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.3</v>
+        <v>108.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2940,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
         <v>2</v>
@@ -2958,22 +3025,22 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2985,16 +3052,16 @@
         <v>11</v>
       </c>
       <c r="AW14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX14" t="n">
         <v>7</v>
       </c>
       <c r="AY14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>14</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>13</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -3032,49 +3099,49 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>0.25</v>
+        <v>0.254</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J15" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="K15" t="n">
         <v>0.45</v>
       </c>
       <c r="L15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M15" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="N15" t="n">
         <v>0.348</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R15" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S15" t="n">
         <v>28.4</v>
@@ -3086,31 +3153,31 @@
         <v>17.3</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>4.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA15" t="n">
         <v>21.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
         <v>27</v>
@@ -3140,16 +3207,16 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>36</v>
       </c>
       <c r="F16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="n">
-        <v>0.529</v>
+        <v>0.537</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
@@ -3235,7 +3302,7 @@
         <v>81.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
         <v>7</v>
@@ -3244,16 +3311,16 @@
         <v>19.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O16" t="n">
         <v>17.3</v>
       </c>
       <c r="P16" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
@@ -3265,19 +3332,19 @@
         <v>39.3</v>
       </c>
       <c r="U16" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V16" t="n">
         <v>12.6</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X16" t="n">
         <v>5.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z16" t="n">
         <v>20.7</v>
@@ -3286,19 +3353,19 @@
         <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
         <v>14</v>
@@ -3313,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>11</v>
@@ -3322,13 +3389,13 @@
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
@@ -3343,19 +3410,19 @@
         <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX16" t="n">
         <v>4</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
         <v>16</v>
@@ -3364,7 +3431,7 @@
         <v>24</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" t="n">
-        <v>0.449</v>
+        <v>0.443</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3417,22 +3484,22 @@
         <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L17" t="n">
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P17" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q17" t="n">
         <v>0.784</v>
@@ -3441,16 +3508,16 @@
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
         <v>7.3</v>
@@ -3462,34 +3529,34 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
@@ -3519,25 +3586,25 @@
         <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
         <v>13</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" t="n">
-        <v>0.29</v>
+        <v>0.294</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3602,34 +3669,34 @@
         <v>0.442</v>
       </c>
       <c r="L18" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M18" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O18" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P18" t="n">
         <v>24.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R18" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S18" t="n">
         <v>29.9</v>
       </c>
       <c r="T18" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U18" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V18" t="n">
         <v>14.3</v>
@@ -3644,19 +3711,19 @@
         <v>6.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.6</v>
+        <v>-4.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,10 +3735,10 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>6</v>
@@ -3683,19 +3750,19 @@
         <v>20</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP18" t="n">
         <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
@@ -3704,13 +3771,13 @@
         <v>17</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3725,10 +3792,10 @@
         <v>22</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
         <v>39</v>
       </c>
       <c r="G19" t="n">
-        <v>0.435</v>
+        <v>0.426</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3778,7 +3845,7 @@
         <v>36</v>
       </c>
       <c r="J19" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K19" t="n">
         <v>0.45</v>
@@ -3790,10 +3857,10 @@
         <v>21</v>
       </c>
       <c r="N19" t="n">
-        <v>0.381</v>
+        <v>0.379</v>
       </c>
       <c r="O19" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P19" t="n">
         <v>24.3</v>
@@ -3805,13 +3872,13 @@
         <v>10.4</v>
       </c>
       <c r="S19" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T19" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U19" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V19" t="n">
         <v>13.2</v>
@@ -3820,7 +3887,7 @@
         <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y19" t="n">
         <v>4.8</v>
@@ -3832,19 +3899,19 @@
         <v>20.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>20</v>
@@ -3856,7 +3923,7 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
         <v>22</v>
@@ -3868,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
         <v>14</v>
@@ -3889,31 +3956,31 @@
         <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV19" t="n">
         <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" t="n">
         <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.632</v>
+        <v>0.627</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
@@ -3960,31 +4027,31 @@
         <v>35.2</v>
       </c>
       <c r="J20" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K20" t="n">
         <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M20" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O20" t="n">
         <v>18.4</v>
       </c>
       <c r="P20" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S20" t="n">
         <v>29.9</v>
@@ -4017,13 +4084,13 @@
         <v>95.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
         <v>6</v>
@@ -4038,10 +4105,10 @@
         <v>28</v>
       </c>
       <c r="AJ20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>10</v>
@@ -4050,19 +4117,19 @@
         <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO20" t="n">
         <v>22</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
       </c>
       <c r="AR20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS20" t="n">
         <v>16</v>
@@ -4077,10 +4144,10 @@
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AX20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" t="n">
         <v>28</v>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="n">
-        <v>0.412</v>
+        <v>0.418</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J21" t="n">
         <v>86.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L21" t="n">
         <v>10.3</v>
       </c>
       <c r="M21" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O21" t="n">
         <v>18.4</v>
@@ -4169,25 +4236,25 @@
         <v>11.1</v>
       </c>
       <c r="S21" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T21" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U21" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V21" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W21" t="n">
         <v>7.3</v>
       </c>
       <c r="X21" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z21" t="n">
         <v>20.5</v>
@@ -4196,25 +4263,25 @@
         <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.6</v>
+        <v>105.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4226,7 +4293,7 @@
         <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
@@ -4259,7 +4326,7 @@
         <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4277,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4373,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" t="n">
         <v>19</v>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" t="n">
-        <v>0.275</v>
+        <v>0.279</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J22" t="n">
         <v>81.8</v>
@@ -4333,49 +4400,49 @@
         <v>4.1</v>
       </c>
       <c r="M22" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O22" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="P22" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q22" t="n">
         <v>0.787</v>
       </c>
       <c r="R22" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S22" t="n">
         <v>30.4</v>
       </c>
       <c r="T22" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U22" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V22" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
       </c>
       <c r="X22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y22" t="n">
         <v>4.9</v>
       </c>
       <c r="Z22" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AA22" t="n">
         <v>20.6</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>20.5</v>
       </c>
       <c r="AB22" t="n">
         <v>97.5</v>
@@ -4384,7 +4451,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4396,7 +4463,7 @@
         <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>16</v>
@@ -4414,13 +4481,13 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
         <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
         <v>9</v>
@@ -4429,10 +4496,10 @@
         <v>4</v>
       </c>
       <c r="AS22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU22" t="n">
         <v>24</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4450,10 +4517,10 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4590,16 +4657,16 @@
         <v>9</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4620,7 +4687,7 @@
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" t="n">
         <v>34</v>
       </c>
       <c r="F24" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" t="n">
-        <v>0.507</v>
+        <v>0.515</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4688,49 +4755,49 @@
         <v>36.8</v>
       </c>
       <c r="J24" t="n">
-        <v>80.59999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L24" t="n">
         <v>4.2</v>
       </c>
       <c r="M24" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.316</v>
+        <v>0.317</v>
       </c>
       <c r="O24" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="P24" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.739</v>
+        <v>0.738</v>
       </c>
       <c r="R24" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="S24" t="n">
         <v>29.2</v>
       </c>
       <c r="T24" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U24" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V24" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W24" t="n">
         <v>8</v>
       </c>
       <c r="X24" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y24" t="n">
         <v>4.8</v>
@@ -4739,16 +4806,16 @@
         <v>20</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4766,10 +4833,10 @@
         <v>13</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,31 +4848,31 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS24" t="n">
         <v>22</v>
       </c>
       <c r="AT24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV24" t="n">
         <v>18</v>
       </c>
       <c r="AW24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
         <v>10</v>
@@ -4817,10 +4884,10 @@
         <v>6</v>
       </c>
       <c r="BA24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4969,22 +5036,22 @@
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR25" t="n">
         <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW25" t="n">
         <v>24</v>
@@ -4999,7 +5066,7 @@
         <v>17</v>
       </c>
       <c r="BA25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB25" t="n">
         <v>2</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E26" t="n">
         <v>43</v>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>0.632</v>
+        <v>0.623</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
         <v>79</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M26" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R26" t="n">
         <v>12.8</v>
@@ -5082,10 +5149,10 @@
         <v>28.5</v>
       </c>
       <c r="T26" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U26" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
@@ -5100,37 +5167,37 @@
         <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
         <v>8</v>
@@ -5142,19 +5209,19 @@
         <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS26" t="n">
         <v>28</v>
@@ -5178,16 +5245,16 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA26" t="n">
         <v>12</v>
       </c>
-      <c r="BA26" t="n">
-        <v>11</v>
-      </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
         <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>0.217</v>
+        <v>0.206</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="J27" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L27" t="n">
         <v>6.9</v>
@@ -5255,16 +5322,16 @@
         <v>25.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.804</v>
+        <v>0.803</v>
       </c>
       <c r="R27" t="n">
         <v>10</v>
       </c>
       <c r="S27" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="T27" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="U27" t="n">
         <v>19.7</v>
@@ -5288,19 +5355,19 @@
         <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.4</v>
+        <v>-8.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
       </c>
       <c r="AF27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG27" t="n">
         <v>30</v>
@@ -5309,7 +5376,7 @@
         <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
@@ -5324,22 +5391,22 @@
         <v>12</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
       </c>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
       </c>
       <c r="AR27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS27" t="n">
         <v>27</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>26</v>
       </c>
       <c r="AT27" t="n">
         <v>30</v>
@@ -5348,7 +5415,7 @@
         <v>28</v>
       </c>
       <c r="AV27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW27" t="n">
         <v>18</v>
@@ -5360,10 +5427,10 @@
         <v>20</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -5398,22 +5465,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" t="n">
         <v>45</v>
       </c>
       <c r="F28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>0.662</v>
+        <v>0.672</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J28" t="n">
         <v>79.7</v>
@@ -5422,43 +5489,43 @@
         <v>0.464</v>
       </c>
       <c r="L28" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M28" t="n">
         <v>19.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.392</v>
+        <v>0.394</v>
       </c>
       <c r="O28" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P28" t="n">
         <v>19.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.763</v>
+        <v>0.766</v>
       </c>
       <c r="R28" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T28" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U28" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V28" t="n">
         <v>12</v>
       </c>
       <c r="W28" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y28" t="n">
         <v>4.4</v>
@@ -5470,16 +5537,16 @@
         <v>18.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.7</v>
+        <v>97</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF28" t="n">
         <v>5</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,19 +5582,19 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5536,7 +5603,7 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5548,10 +5615,10 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" t="n">
         <v>24</v>
       </c>
       <c r="F29" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29" t="n">
-        <v>0.348</v>
+        <v>0.353</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>79.8</v>
+        <v>80</v>
       </c>
       <c r="K29" t="n">
         <v>0.456</v>
@@ -5607,37 +5674,37 @@
         <v>5.9</v>
       </c>
       <c r="M29" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O29" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P29" t="n">
         <v>22.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.827</v>
+        <v>0.826</v>
       </c>
       <c r="R29" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T29" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="U29" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V29" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W29" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X29" t="n">
         <v>4.7</v>
@@ -5646,34 +5713,34 @@
         <v>4.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA29" t="n">
         <v>20.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.9</v>
+        <v>-3.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>19</v>
@@ -5688,10 +5755,10 @@
         <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP29" t="n">
         <v>25</v>
@@ -5703,7 +5770,7 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AT29" t="n">
         <v>26</v>
@@ -5718,13 +5785,13 @@
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -5762,46 +5829,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" t="n">
         <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>0.623</v>
+        <v>0.618</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J30" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K30" t="n">
         <v>0.477</v>
       </c>
       <c r="L30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M30" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O30" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P30" t="n">
         <v>27.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R30" t="n">
         <v>11.7</v>
@@ -5816,10 +5883,10 @@
         <v>24.8</v>
       </c>
       <c r="V30" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
         <v>4.7</v>
@@ -5828,7 +5895,7 @@
         <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA30" t="n">
         <v>23.8</v>
@@ -5840,13 +5907,13 @@
         <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
         <v>10</v>
@@ -5858,7 +5925,7 @@
         <v>6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5894,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
@@ -5912,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="BB30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC30" t="n">
         <v>8</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
       </c>
       <c r="F31" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G31" t="n">
-        <v>0.229</v>
+        <v>0.232</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5971,34 +6038,34 @@
         <v>4.8</v>
       </c>
       <c r="M31" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O31" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="P31" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S31" t="n">
         <v>28</v>
       </c>
       <c r="T31" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="U31" t="n">
         <v>20.2</v>
       </c>
       <c r="V31" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W31" t="n">
         <v>7.6</v>
@@ -6013,16 +6080,16 @@
         <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>95.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC31" t="n">
         <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,10 +6101,10 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
@@ -6058,13 +6125,13 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS31" t="n">
         <v>30</v>
@@ -6079,7 +6146,7 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
@@ -6088,10 +6155,10 @@
         <v>21</v>
       </c>
       <c r="AZ31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-20-2008-09</t>
+          <t>2009-03-20</t>
         </is>
       </c>
     </row>
